--- a/main/static/tpl/JpInvoice.xlsx
+++ b/main/static/tpl/JpInvoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.110\請求書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{19B6D188-11AF-4023-B193-8E3D7A351BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0233F581-3E34-4CB1-AF41-A4E385324EDC}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{19B6D188-11AF-4023-B193-8E3D7A351BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C731001-57B2-4B10-8E68-12EE93014012}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1526,6 +1526,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1534,7 +1560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1688,6 +1714,230 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1696,10 +1946,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1708,225 +1954,140 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1969,140 +2130,41 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2124,41 +2186,59 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2181,62 +2261,12 @@
     <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2836,15 +2866,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="H1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="48"/>
+      <c r="H1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="105"/>
       <c r="J1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="C2" s="13" t="s">
@@ -2852,13 +2882,13 @@
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="13"/>
@@ -2874,12 +2904,12 @@
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -2888,10 +2918,10 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="22.5" customHeight="1">
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="39"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -2971,10 +3001,10 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="104"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -2988,8 +3018,8 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
@@ -3005,22 +3035,22 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56">
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96">
         <f>K39</f>
         <v>0</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1">
       <c r="B15" s="15" t="s">
@@ -3051,13 +3081,13 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="43" t="s">
         <v>11</v>
       </c>
@@ -3070,340 +3100,340 @@
       <c r="J17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="63"/>
+      <c r="L17" s="103"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="78">
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="72">
         <f>G18*I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78">
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72">
         <f>G20*I20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="80"/>
-      <c r="L20" s="81"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="75"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78">
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72">
         <f t="shared" ref="J22" si="0">G22*I22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="75"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78">
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72">
         <f t="shared" ref="J24" si="1">G24*I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="80"/>
-      <c r="L24" s="81"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="75"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1">
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78">
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72">
         <f t="shared" ref="J26" si="2">G26*I26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="80"/>
-      <c r="L26" s="81"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="75"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78">
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72">
         <f t="shared" ref="J28" si="3">G28*I28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="80"/>
-      <c r="L28" s="81"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1">
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="67"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="75"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="75"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1">
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78">
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72">
         <f t="shared" ref="J32" si="4">G32*I32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="80"/>
-      <c r="L32" s="81"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="67"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78">
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72">
         <f t="shared" ref="J34" si="5">G34*I34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="80"/>
-      <c r="L34" s="81"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78">
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72">
         <f t="shared" ref="J36" si="6">G36*I36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="80"/>
-      <c r="L36" s="81"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="59"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="90"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="97" t="s">
+      <c r="E38" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="98"/>
-      <c r="G38" s="101" t="s">
+      <c r="F38" s="48"/>
+      <c r="G38" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102" t="s">
+      <c r="H38" s="52"/>
+      <c r="I38" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102" t="s">
+      <c r="J38" s="52"/>
+      <c r="K38" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="103"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="104">
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="54">
         <f>SUM(J18:J37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106">
+      <c r="H39" s="55"/>
+      <c r="I39" s="56">
         <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="104"/>
-      <c r="K39" s="105">
+      <c r="J39" s="54"/>
+      <c r="K39" s="55">
         <f>G39+I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="107"/>
+      <c r="L39" s="57"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="13"/>
@@ -3517,13 +3547,73 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B34:F34"/>
@@ -3538,73 +3628,13 @@
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3636,32 +3666,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" customHeight="1">
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="109"/>
+      <c r="H1" s="154"/>
       <c r="I1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="91">
         <f>見積書!K1</f>
         <v>0</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
       <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="106">
         <f>見積書!K2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1">
       <c r="B3" s="4"/>
@@ -3676,32 +3706,32 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B4" s="110">
+      <c r="B4" s="155">
         <f>見積書!L6</f>
         <v>0</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="G4" s="111" t="s">
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="G4" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
     </row>
     <row r="5" spans="2:11" ht="22.5" customHeight="1">
       <c r="B5" s="13"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="14"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="161"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1">
       <c r="B6" s="15">
@@ -3712,11 +3742,11 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="161"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="15">
@@ -3727,14 +3757,14 @@
       <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
-      <c r="B8" s="208">
+      <c r="B8" s="15">
         <f>見積書!L9</f>
         <v>0</v>
       </c>
@@ -3742,11 +3772,11 @@
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="116"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="161"/>
     </row>
     <row r="9" spans="2:11" ht="13.5">
       <c r="B9" s="15">
@@ -3757,11 +3787,11 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="161"/>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
       <c r="B10" s="38" t="s">
@@ -3771,11 +3801,11 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="161"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1">
       <c r="B11" s="13"/>
@@ -3783,22 +3813,22 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="161"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="4"/>
@@ -3853,12 +3883,12 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
       <c r="F17" s="45" t="s">
         <v>11</v>
       </c>
@@ -3871,501 +3901,501 @@
       <c r="I17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="130" t="s">
+      <c r="J17" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="131"/>
+      <c r="K17" s="143"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1">
-      <c r="B18" s="132">
+      <c r="B18" s="144">
         <f>見積書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135">
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="147">
         <f>見積書!G18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="137">
+      <c r="G18" s="149">
         <f>見積書!H18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="139">
+      <c r="H18" s="150">
         <f>見積書!I18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="139">
+      <c r="I18" s="150">
         <f>見積書!J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="141">
+      <c r="J18" s="151">
         <f>見積書!K18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="142"/>
+      <c r="K18" s="152"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="B19" s="124">
+      <c r="B19" s="133">
         <f>見積書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="122"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="120"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="B20" s="143">
+      <c r="B20" s="126">
         <f>見積書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="146">
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129">
         <f>見積書!G20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="138">
+      <c r="G20" s="130">
         <f>見積書!H20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="140">
+      <c r="H20" s="131">
         <f>見積書!I20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="140">
+      <c r="I20" s="131">
         <f>見積書!J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="121">
+      <c r="J20" s="119">
         <f>見積書!K20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="122"/>
+      <c r="K20" s="120"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
-      <c r="B21" s="124">
+      <c r="B21" s="133">
         <f>見積書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="122"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="120"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1">
-      <c r="B22" s="143">
+      <c r="B22" s="126">
         <f>見積書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="146">
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129">
         <f>見積書!G22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="138">
+      <c r="G22" s="130">
         <f>見積書!H22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="140">
+      <c r="H22" s="131">
         <f>見積書!I22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="140">
+      <c r="I22" s="131">
         <f>見積書!J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="121">
+      <c r="J22" s="119">
         <f>見積書!K22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="122"/>
+      <c r="K22" s="120"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1">
-      <c r="B23" s="124">
+      <c r="B23" s="133">
         <f>見積書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="122"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="120"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1">
-      <c r="B24" s="143">
+      <c r="B24" s="126">
         <f>見積書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="146">
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129">
         <f>見積書!G24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="138">
+      <c r="G24" s="130">
         <f>見積書!H24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="140">
+      <c r="H24" s="131">
         <f>見積書!I24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="140">
+      <c r="I24" s="131">
         <f>見積書!J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="121">
+      <c r="J24" s="119">
         <f>見積書!K24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="122"/>
+      <c r="K24" s="120"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1">
-      <c r="B25" s="124">
+      <c r="B25" s="133">
         <f>見積書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="122"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="120"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1">
-      <c r="B26" s="143">
+      <c r="B26" s="126">
         <f>見積書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="146">
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129">
         <f>見積書!G26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="138">
+      <c r="G26" s="130">
         <f>見積書!H26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="140">
+      <c r="H26" s="131">
         <f>見積書!I26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="140">
+      <c r="I26" s="131">
         <f>見積書!J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="121">
+      <c r="J26" s="119">
         <f>見積書!K26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="122"/>
+      <c r="K26" s="120"/>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1">
-      <c r="B27" s="124">
+      <c r="B27" s="133">
         <f>見積書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="122"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="120"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1">
-      <c r="B28" s="143">
+      <c r="B28" s="126">
         <f>見積書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="146">
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129">
         <f>見積書!G28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="138">
+      <c r="G28" s="130">
         <f>見積書!H28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="140">
+      <c r="H28" s="131">
         <f>見積書!I28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="140">
+      <c r="I28" s="131">
         <f>見積書!J28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="119">
         <f>見積書!K28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="122"/>
+      <c r="K28" s="120"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1">
-      <c r="B29" s="124">
+      <c r="B29" s="133">
         <f>見積書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="122"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="120"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1">
-      <c r="B30" s="143">
+      <c r="B30" s="126">
         <f>見積書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="146">
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129">
         <f>見積書!G30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="138">
+      <c r="G30" s="130">
         <f>見積書!H30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="140">
+      <c r="H30" s="131">
         <f>見積書!I30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="140">
+      <c r="I30" s="131">
         <f>見積書!J30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="121">
+      <c r="J30" s="119">
         <f>見積書!K30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="122"/>
+      <c r="K30" s="120"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1">
-      <c r="B31" s="124">
+      <c r="B31" s="133">
         <f>見積書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="122"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="120"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1">
-      <c r="B32" s="143">
+      <c r="B32" s="126">
         <f>見積書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="146">
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129">
         <f>見積書!G32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="138">
+      <c r="G32" s="130">
         <f>見積書!H32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="140">
+      <c r="H32" s="131">
         <f>見積書!I32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="140">
+      <c r="I32" s="131">
         <f>見積書!J32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="121">
+      <c r="J32" s="119">
         <f>見積書!K32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="122"/>
+      <c r="K32" s="120"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1">
-      <c r="B33" s="124">
+      <c r="B33" s="133">
         <f>見積書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="122"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="120"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1">
-      <c r="B34" s="143">
+      <c r="B34" s="126">
         <f>見積書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="146">
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129">
         <f>見積書!G34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="138">
+      <c r="G34" s="130">
         <f>見積書!H34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="140">
+      <c r="H34" s="131">
         <f>見積書!I34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="140">
+      <c r="I34" s="131">
         <f>見積書!J34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="121">
+      <c r="J34" s="119">
         <f>見積書!K34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="122"/>
+      <c r="K34" s="120"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1">
-      <c r="B35" s="124">
+      <c r="B35" s="133">
         <f>見積書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="122"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="120"/>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1">
-      <c r="B36" s="143">
+      <c r="B36" s="126">
         <f>見積書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="146">
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129">
         <f>見積書!G36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="138">
+      <c r="G36" s="130">
         <f>見積書!H36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="140">
+      <c r="H36" s="131">
         <f>見積書!I36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="140">
+      <c r="I36" s="131">
         <f>見積書!J36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="121">
+      <c r="J36" s="119">
         <f>見積書!K36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="122"/>
+      <c r="K36" s="120"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="149">
+      <c r="B37" s="123">
         <f>見積書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="148"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="122"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="155" t="s">
+      <c r="D38" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="156"/>
-      <c r="F38" s="159" t="s">
+      <c r="E38" s="109"/>
+      <c r="F38" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160" t="s">
+      <c r="G38" s="113"/>
+      <c r="H38" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160" t="s">
+      <c r="I38" s="113"/>
+      <c r="J38" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="161"/>
+      <c r="K38" s="114"/>
     </row>
     <row r="39" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="162">
+      <c r="D39" s="110"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="115">
         <f>SUM(I18:I37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="163"/>
-      <c r="H39" s="164">
+      <c r="G39" s="116"/>
+      <c r="H39" s="117">
         <f>ROUNDDOWN(F39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="162"/>
-      <c r="J39" s="163">
+      <c r="I39" s="115"/>
+      <c r="J39" s="116">
         <f>F39+H39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="165"/>
+      <c r="K39" s="118"/>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1">
       <c r="B40" s="4"/>
@@ -4448,69 +4478,12 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J28:K29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:K12"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="J20:K21"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B17:E17"/>
@@ -4527,12 +4500,69 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:K12"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:K35"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4571,18 +4601,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="48"/>
+      <c r="I1" s="105"/>
       <c r="J1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="91">
         <f>注文書!J1</f>
         <v>0</v>
       </c>
-      <c r="L1" s="49"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="C2" s="13" t="str">
@@ -4591,16 +4621,16 @@
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="106">
         <f>見積書!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="50"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="13"/>
@@ -4619,13 +4649,13 @@
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C4" s="51" t="str">
+      <c r="C4" s="107" t="str">
         <f>見積書!C4</f>
         <v>　御中</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -4634,12 +4664,12 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="22.5" customHeight="1">
-      <c r="C5" s="51">
+      <c r="C5" s="107">
         <f>見積書!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="44"/>
       <c r="G5" s="39"/>
       <c r="H5" s="14"/>
@@ -4738,10 +4768,10 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="104"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -4755,8 +4785,8 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
@@ -4772,22 +4802,22 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56">
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96">
         <f>K39</f>
         <v>0</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1">
       <c r="B15" s="15"/>
@@ -4816,13 +4846,13 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1">
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="170"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="46" t="s">
         <v>11</v>
       </c>
@@ -4835,523 +4865,523 @@
       <c r="J17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="166" t="s">
+      <c r="K17" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="167"/>
+      <c r="L17" s="179"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="171">
+      <c r="B18" s="166">
         <f>見積書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="177">
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="175">
         <f>見積書!G18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="130">
         <f>見積書!H18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="140">
+      <c r="I18" s="131">
         <f>見積書!I18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="140">
+      <c r="J18" s="131">
         <f>見積書!J18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="121">
+      <c r="K18" s="119">
         <f>見積書!K18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="122"/>
+      <c r="L18" s="120"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="174">
+      <c r="B19" s="172">
         <f>見積書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="122"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="120"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="171">
+      <c r="B20" s="166">
         <f>見積書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="146">
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="129">
         <f>見積書!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="130">
         <f>見積書!H20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="140">
+      <c r="I20" s="131">
         <f>見積書!I20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="140">
+      <c r="J20" s="131">
         <f>見積書!J20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="119">
         <f>見積書!K20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="122"/>
+      <c r="L20" s="120"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="174">
+      <c r="B21" s="172">
         <f>見積書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="122"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="120"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="171">
+      <c r="B22" s="166">
         <f>見積書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="146">
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="129">
         <f>見積書!G22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="130">
         <f>見積書!H22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="140">
+      <c r="I22" s="131">
         <f>見積書!I22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="140">
+      <c r="J22" s="131">
         <f>見積書!J22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="119">
         <f>見積書!K22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="122"/>
+      <c r="L22" s="120"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="174">
+      <c r="B23" s="172">
         <f>見積書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="122"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="120"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="171">
+      <c r="B24" s="166">
         <f>見積書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="146">
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="129">
         <f>見積書!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="130">
         <f>見積書!H24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="140">
+      <c r="I24" s="131">
         <f>見積書!I24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="140">
+      <c r="J24" s="131">
         <f>見積書!J24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="119">
         <f>見積書!K24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="122"/>
+      <c r="L24" s="120"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
-      <c r="B25" s="174">
+      <c r="B25" s="172">
         <f>見積書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="122"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="120"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1">
-      <c r="B26" s="171">
+      <c r="B26" s="166">
         <f>見積書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="146">
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="129">
         <f>見積書!G26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="130">
         <f>見積書!H26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="140">
+      <c r="I26" s="131">
         <f>見積書!I26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="140">
+      <c r="J26" s="131">
         <f>見積書!J26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="121">
+      <c r="K26" s="119">
         <f>見積書!K26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="122"/>
+      <c r="L26" s="120"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
-      <c r="B27" s="174">
+      <c r="B27" s="172">
         <f>見積書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="122"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="120"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="171">
+      <c r="B28" s="166">
         <f>見積書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="146">
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="129">
         <f>見積書!G28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="130">
         <f>見積書!H28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="140">
+      <c r="I28" s="131">
         <f>見積書!I28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="140">
+      <c r="J28" s="131">
         <f>見積書!J28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="121">
+      <c r="K28" s="119">
         <f>見積書!K28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="122"/>
+      <c r="L28" s="120"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1">
-      <c r="B29" s="174">
+      <c r="B29" s="172">
         <f>見積書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="122"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="120"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
-      <c r="B30" s="171">
+      <c r="B30" s="166">
         <f>見積書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="146">
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="129">
         <f>見積書!G30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="130">
         <f>見積書!H30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="140">
+      <c r="I30" s="131">
         <f>見積書!I30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="140">
+      <c r="J30" s="131">
         <f>見積書!J30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="121">
+      <c r="K30" s="119">
         <f>見積書!K30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="122"/>
+      <c r="L30" s="120"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
-      <c r="B31" s="174">
+      <c r="B31" s="172">
         <f>見積書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="122"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="120"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1">
-      <c r="B32" s="171">
+      <c r="B32" s="166">
         <f>見積書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="146">
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="129">
         <f>見積書!G32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="138">
+      <c r="H32" s="130">
         <f>見積書!H32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="140">
+      <c r="I32" s="131">
         <f>見積書!I32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="140">
+      <c r="J32" s="131">
         <f>見積書!J32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="121">
+      <c r="K32" s="119">
         <f>見積書!K32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="122"/>
+      <c r="L32" s="120"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
-      <c r="B33" s="174">
+      <c r="B33" s="172">
         <f>見積書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="122"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="120"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="171">
+      <c r="B34" s="166">
         <f>見積書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="146">
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="129">
         <f>見積書!G34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="138">
+      <c r="H34" s="130">
         <f>見積書!H34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="140">
+      <c r="I34" s="131">
         <f>見積書!I34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="140">
+      <c r="J34" s="131">
         <f>見積書!J34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="121">
+      <c r="K34" s="119">
         <f>見積書!K34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="122"/>
+      <c r="L34" s="120"/>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
-      <c r="B35" s="174">
+      <c r="B35" s="172">
         <f>見積書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="122"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="120"/>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
-      <c r="B36" s="171">
+      <c r="B36" s="166">
         <f>見積書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="146">
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="129">
         <f>見積書!G36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="138">
+      <c r="H36" s="130">
         <f>見積書!H36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="140">
+      <c r="I36" s="131">
         <f>見積書!I36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="140">
+      <c r="J36" s="131">
         <f>見積書!J36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="121">
+      <c r="K36" s="119">
         <f>見積書!K36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="122"/>
+      <c r="L36" s="120"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="180">
+      <c r="B37" s="169">
         <f>見積書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="148"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="97" t="s">
+      <c r="E38" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="41"/>
-      <c r="G38" s="101" t="s">
+      <c r="G38" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102" t="s">
+      <c r="H38" s="52"/>
+      <c r="I38" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102" t="s">
+      <c r="J38" s="52"/>
+      <c r="K38" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="103"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="99"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="104">
+      <c r="G39" s="54">
         <f>SUM(J18:J37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106">
+      <c r="H39" s="55"/>
+      <c r="I39" s="56">
         <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="104"/>
-      <c r="K39" s="105">
+      <c r="J39" s="54"/>
+      <c r="K39" s="55">
         <f>G39+I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="107"/>
+      <c r="L39" s="57"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="13"/>
@@ -5465,14 +5495,70 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="I36:I37"/>
@@ -5489,70 +5575,14 @@
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="H28:H29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5588,15 +5618,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="48"/>
+      <c r="I1" s="105"/>
       <c r="J1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="91">
+        <f>見積書!K1</f>
+        <v>0</v>
+      </c>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="C2" s="13" t="str">
@@ -5605,16 +5638,16 @@
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="106">
         <f>見積書!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="50"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="13"/>
@@ -5633,13 +5666,13 @@
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C4" s="51" t="str">
+      <c r="C4" s="107" t="str">
         <f>見積書!C4</f>
         <v>　御中</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -5648,12 +5681,12 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="22.5" customHeight="1">
-      <c r="C5" s="51">
+      <c r="C5" s="107">
         <f>見積書!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="44"/>
       <c r="G5" s="39"/>
       <c r="H5" s="14"/>
@@ -5752,10 +5785,10 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="104"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -5769,8 +5802,8 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
@@ -5786,22 +5819,22 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56">
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96">
         <f>K39</f>
         <v>0</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1">
       <c r="B15" s="15"/>
@@ -5830,13 +5863,13 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="43" t="s">
         <v>11</v>
       </c>
@@ -5849,523 +5882,523 @@
       <c r="J17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="63"/>
+      <c r="L17" s="103"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="171">
+      <c r="B18" s="166">
         <f>見積書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="177">
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="175">
         <f>見積書!G18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="138">
+      <c r="H18" s="130">
         <f>見積書!H18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="140">
+      <c r="I18" s="131">
         <f>見積書!I18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="140">
+      <c r="J18" s="131">
         <f>見積書!J18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="121">
+      <c r="K18" s="119">
         <f>見積書!K18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="122"/>
+      <c r="L18" s="120"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="174">
+      <c r="B19" s="172">
         <f>見積書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="122"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="120"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="171">
+      <c r="B20" s="166">
         <f>見積書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="146">
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="129">
         <f>見積書!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="130">
         <f>見積書!H20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="140">
+      <c r="I20" s="131">
         <f>見積書!I20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="140">
+      <c r="J20" s="131">
         <f>見積書!J20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="119">
         <f>見積書!K20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="122"/>
+      <c r="L20" s="120"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="174">
+      <c r="B21" s="172">
         <f>見積書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="122"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="120"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="171">
+      <c r="B22" s="166">
         <f>見積書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="146">
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="129">
         <f>見積書!G22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="130">
         <f>見積書!H22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="140">
+      <c r="I22" s="131">
         <f>見積書!I22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="140">
+      <c r="J22" s="131">
         <f>見積書!J22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="119">
         <f>見積書!K22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="122"/>
+      <c r="L22" s="120"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="174">
+      <c r="B23" s="172">
         <f>見積書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="122"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="120"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="171">
+      <c r="B24" s="166">
         <f>見積書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="146">
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="129">
         <f>見積書!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="130">
         <f>見積書!H24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="140">
+      <c r="I24" s="131">
         <f>見積書!I24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="140">
+      <c r="J24" s="131">
         <f>見積書!J24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="119">
         <f>見積書!K24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="122"/>
+      <c r="L24" s="120"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
-      <c r="B25" s="174">
+      <c r="B25" s="172">
         <f>見積書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="122"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="120"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1">
-      <c r="B26" s="171">
+      <c r="B26" s="166">
         <f>見積書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="146">
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="129">
         <f>見積書!G26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="130">
         <f>見積書!H26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="140">
+      <c r="I26" s="131">
         <f>見積書!I26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="140">
+      <c r="J26" s="131">
         <f>見積書!J26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="121">
+      <c r="K26" s="119">
         <f>見積書!K26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="122"/>
+      <c r="L26" s="120"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
-      <c r="B27" s="174">
+      <c r="B27" s="172">
         <f>見積書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="122"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="120"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="171">
+      <c r="B28" s="166">
         <f>見積書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="146">
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="129">
         <f>見積書!G28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="130">
         <f>見積書!H28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="140">
+      <c r="I28" s="131">
         <f>見積書!I28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="140">
+      <c r="J28" s="131">
         <f>見積書!J28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="121">
+      <c r="K28" s="119">
         <f>見積書!K28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="122"/>
+      <c r="L28" s="120"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1">
-      <c r="B29" s="174">
+      <c r="B29" s="172">
         <f>見積書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="122"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="120"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
-      <c r="B30" s="171">
+      <c r="B30" s="166">
         <f>見積書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="146">
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="129">
         <f>見積書!G30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="130">
         <f>見積書!H30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="140">
+      <c r="I30" s="131">
         <f>見積書!I30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="140">
+      <c r="J30" s="131">
         <f>見積書!J30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="121">
+      <c r="K30" s="119">
         <f>見積書!K30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="122"/>
+      <c r="L30" s="120"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
-      <c r="B31" s="174">
+      <c r="B31" s="172">
         <f>見積書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="122"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="120"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1">
-      <c r="B32" s="171">
+      <c r="B32" s="166">
         <f>見積書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="146">
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="129">
         <f>見積書!G32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="138">
+      <c r="H32" s="130">
         <f>見積書!H32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="140">
+      <c r="I32" s="131">
         <f>見積書!I32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="140">
+      <c r="J32" s="131">
         <f>見積書!J32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="121">
+      <c r="K32" s="119">
         <f>見積書!K32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="122"/>
+      <c r="L32" s="120"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
-      <c r="B33" s="174">
+      <c r="B33" s="172">
         <f>見積書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="122"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="120"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="171">
+      <c r="B34" s="166">
         <f>見積書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="146">
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="129">
         <f>見積書!G34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="138">
+      <c r="H34" s="130">
         <f>見積書!H34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="140">
+      <c r="I34" s="131">
         <f>見積書!I34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="140">
+      <c r="J34" s="131">
         <f>見積書!J34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="121">
+      <c r="K34" s="119">
         <f>見積書!K34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="122"/>
+      <c r="L34" s="120"/>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
-      <c r="B35" s="174">
+      <c r="B35" s="172">
         <f>見積書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="122"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="120"/>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
-      <c r="B36" s="171">
+      <c r="B36" s="166">
         <f>見積書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="146">
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="129">
         <f>見積書!G36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="138">
+      <c r="H36" s="130">
         <f>見積書!H36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="140">
+      <c r="I36" s="131">
         <f>見積書!I36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="140">
+      <c r="J36" s="131">
         <f>見積書!J36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="121">
+      <c r="K36" s="119">
         <f>見積書!K36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="122"/>
+      <c r="L36" s="120"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="180">
+      <c r="B37" s="169">
         <f>見積書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="148"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="97" t="s">
+      <c r="E38" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="98"/>
-      <c r="G38" s="101" t="s">
+      <c r="F38" s="48"/>
+      <c r="G38" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102" t="s">
+      <c r="H38" s="52"/>
+      <c r="I38" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102" t="s">
+      <c r="J38" s="52"/>
+      <c r="K38" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="103"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="104">
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="54">
         <f>SUM(J18:J37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106">
+      <c r="H39" s="55"/>
+      <c r="I39" s="56">
         <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="104"/>
-      <c r="K39" s="105">
+      <c r="J39" s="54"/>
+      <c r="K39" s="55">
         <f>G39+I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="107"/>
+      <c r="L39" s="57"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="13"/>
@@ -6496,51 +6529,33 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B34:F34"/>
@@ -6557,33 +6572,51 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -6692,32 +6725,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" customHeight="1">
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="109"/>
+      <c r="H1" s="154"/>
       <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="208">
         <f>請求書!K2</f>
         <v>0</v>
       </c>
-      <c r="K1" s="50"/>
+      <c r="K1" s="209"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
       <c r="I2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="106">
         <f>見積書!K2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1">
       <c r="B3" s="4"/>
@@ -6732,32 +6765,32 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B4" s="110">
+      <c r="B4" s="155">
         <f>見積書!L6</f>
         <v>0</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="G4" s="111" t="s">
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="G4" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
     </row>
     <row r="5" spans="2:11" ht="22.5" customHeight="1">
       <c r="B5" s="13"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="14"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="161"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1">
       <c r="B6" s="15">
@@ -6768,11 +6801,11 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="161"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="15">
@@ -6783,14 +6816,14 @@
       <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
-      <c r="B8" s="208">
+      <c r="B8" s="15">
         <f>見積書!L9</f>
         <v>0</v>
       </c>
@@ -6798,11 +6831,11 @@
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="116"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="161"/>
     </row>
     <row r="9" spans="2:11" ht="18.95">
       <c r="B9" s="15">
@@ -6813,11 +6846,11 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="161"/>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
       <c r="B10" s="38" t="s">
@@ -6827,11 +6860,11 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="161"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1">
       <c r="B11" s="13"/>
@@ -6839,22 +6872,22 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="161"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="4"/>
@@ -6907,12 +6940,12 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
       <c r="F17" s="45" t="s">
         <v>11</v>
       </c>
@@ -6925,501 +6958,501 @@
       <c r="I17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="130" t="s">
+      <c r="J17" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="131"/>
+      <c r="K17" s="143"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1">
-      <c r="B18" s="132">
+      <c r="B18" s="144">
         <f>請求書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135">
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="147">
         <f>請求書!G18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="137">
+      <c r="G18" s="149">
         <f>請求書!H18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="139">
+      <c r="H18" s="150">
         <f>請求書!I18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="139">
+      <c r="I18" s="150">
         <f>請求書!J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="141">
+      <c r="J18" s="151">
         <f>請求書!K18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="142"/>
+      <c r="K18" s="152"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="B19" s="124">
+      <c r="B19" s="133">
         <f>請求書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="122"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="120"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="B20" s="143">
+      <c r="B20" s="126">
         <f>請求書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="146">
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129">
         <f>請求書!G20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="138">
+      <c r="G20" s="130">
         <f>請求書!H20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="140">
+      <c r="H20" s="131">
         <f>請求書!I20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="140">
+      <c r="I20" s="131">
         <f>請求書!J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="121">
+      <c r="J20" s="119">
         <f>請求書!K20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="122"/>
+      <c r="K20" s="120"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
-      <c r="B21" s="124">
+      <c r="B21" s="133">
         <f>請求書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="122"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="120"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1">
-      <c r="B22" s="143">
+      <c r="B22" s="126">
         <f>請求書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="146">
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129">
         <f>請求書!G22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="138">
+      <c r="G22" s="130">
         <f>請求書!H22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="140">
+      <c r="H22" s="131">
         <f>請求書!I22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="140">
+      <c r="I22" s="131">
         <f>請求書!J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="121">
+      <c r="J22" s="119">
         <f>請求書!K22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="122"/>
+      <c r="K22" s="120"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1">
-      <c r="B23" s="124">
+      <c r="B23" s="133">
         <f>請求書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="122"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="120"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1">
-      <c r="B24" s="143">
+      <c r="B24" s="126">
         <f>請求書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="146">
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129">
         <f>請求書!G24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="138">
+      <c r="G24" s="130">
         <f>請求書!H24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="140">
+      <c r="H24" s="131">
         <f>請求書!I24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="140">
+      <c r="I24" s="131">
         <f>請求書!J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="121">
+      <c r="J24" s="119">
         <f>請求書!K24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="122"/>
+      <c r="K24" s="120"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1">
-      <c r="B25" s="124">
+      <c r="B25" s="133">
         <f>請求書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="122"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="120"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1">
-      <c r="B26" s="143">
+      <c r="B26" s="126">
         <f>請求書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="146">
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129">
         <f>請求書!G26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="138">
+      <c r="G26" s="130">
         <f>請求書!H26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="140">
+      <c r="H26" s="131">
         <f>請求書!I26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="140">
+      <c r="I26" s="131">
         <f>請求書!J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="121">
+      <c r="J26" s="119">
         <f>請求書!K26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="122"/>
+      <c r="K26" s="120"/>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1">
-      <c r="B27" s="124">
+      <c r="B27" s="133">
         <f>請求書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="122"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="120"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1">
-      <c r="B28" s="143">
+      <c r="B28" s="126">
         <f>請求書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="146">
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129">
         <f>請求書!G28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="138">
+      <c r="G28" s="130">
         <f>請求書!H28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="140">
+      <c r="H28" s="131">
         <f>請求書!I28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="140">
+      <c r="I28" s="131">
         <f>請求書!J28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="119">
         <f>請求書!K28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="122"/>
+      <c r="K28" s="120"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1">
-      <c r="B29" s="124">
+      <c r="B29" s="133">
         <f>請求書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="122"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="120"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1">
-      <c r="B30" s="143">
+      <c r="B30" s="126">
         <f>請求書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="146">
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129">
         <f>請求書!G30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="138">
+      <c r="G30" s="130">
         <f>請求書!H30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="140">
+      <c r="H30" s="131">
         <f>請求書!I30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="140">
+      <c r="I30" s="131">
         <f>請求書!J30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="121">
+      <c r="J30" s="119">
         <f>請求書!K30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="122"/>
+      <c r="K30" s="120"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1">
-      <c r="B31" s="124">
+      <c r="B31" s="133">
         <f>請求書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="122"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="120"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1">
-      <c r="B32" s="143">
+      <c r="B32" s="126">
         <f>請求書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="146">
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129">
         <f>請求書!G32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="138">
+      <c r="G32" s="130">
         <f>請求書!H32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="140">
+      <c r="H32" s="131">
         <f>請求書!I32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="140">
+      <c r="I32" s="131">
         <f>請求書!J32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="121">
+      <c r="J32" s="119">
         <f>請求書!K32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="122"/>
+      <c r="K32" s="120"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1">
-      <c r="B33" s="124">
+      <c r="B33" s="133">
         <f>請求書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="122"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="120"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1">
-      <c r="B34" s="143">
+      <c r="B34" s="126">
         <f>請求書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="146">
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129">
         <f>請求書!G34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="138">
+      <c r="G34" s="130">
         <f>請求書!H34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="140">
+      <c r="H34" s="131">
         <f>請求書!I34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="140">
+      <c r="I34" s="131">
         <f>請求書!J34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="121">
+      <c r="J34" s="119">
         <f>請求書!K34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="122"/>
+      <c r="K34" s="120"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1">
-      <c r="B35" s="124">
+      <c r="B35" s="133">
         <f>請求書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="122"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="120"/>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1">
-      <c r="B36" s="143">
+      <c r="B36" s="126">
         <f>請求書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="146">
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129">
         <f>請求書!G36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="138">
+      <c r="G36" s="130">
         <f>請求書!H36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="140">
+      <c r="H36" s="131">
         <f>請求書!I36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="140">
+      <c r="I36" s="131">
         <f>請求書!J36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="121">
+      <c r="J36" s="119">
         <f>請求書!K36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="122"/>
+      <c r="K36" s="120"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="149">
+      <c r="B37" s="123">
         <f>請求書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="148"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="122"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="155" t="s">
+      <c r="D38" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="156"/>
-      <c r="F38" s="159" t="s">
+      <c r="E38" s="109"/>
+      <c r="F38" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160" t="s">
+      <c r="G38" s="113"/>
+      <c r="H38" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160" t="s">
+      <c r="I38" s="113"/>
+      <c r="J38" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="161"/>
+      <c r="K38" s="114"/>
     </row>
     <row r="39" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="162">
+      <c r="D39" s="110"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="115">
         <f>SUM(I18:I37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="163"/>
-      <c r="H39" s="164">
+      <c r="G39" s="116"/>
+      <c r="H39" s="117">
         <f>ROUNDDOWN(F39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="162"/>
-      <c r="J39" s="163">
+      <c r="I39" s="115"/>
+      <c r="J39" s="116">
         <f>F39+H39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="165"/>
+      <c r="K39" s="118"/>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1">
       <c r="B40" s="4"/>
@@ -7500,55 +7533,26 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J28:K29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:K12"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:K21"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="J24:K25"/>
@@ -7565,26 +7569,55 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:K12"/>
-    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:K35"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -7617,18 +7650,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="109"/>
+      <c r="I1" s="154"/>
       <c r="J1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="91">
         <f>請求書!K1</f>
         <v>0</v>
       </c>
-      <c r="L1" s="49"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="C2" s="13" t="str">
@@ -7637,16 +7670,16 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="154"/>
       <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="106">
         <f>請求書!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="50"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="4"/>
@@ -7665,13 +7698,13 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C4" s="51" t="str">
+      <c r="C4" s="107" t="str">
         <f>請求書!C4</f>
         <v>　御中</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -7680,13 +7713,13 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="22.5" customHeight="1">
-      <c r="C5" s="51">
+      <c r="C5" s="107">
         <f>請求書!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="39"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -7789,10 +7822,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="104"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -7806,11 +7839,11 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="49">
+      <c r="K12" s="91">
         <f>請求書!K12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="49"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="4"/>
@@ -7826,22 +7859,22 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="187">
+      <c r="C14" s="202"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="205">
         <f>K39</f>
         <v>0</v>
       </c>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="189"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="206"/>
+      <c r="L14" s="207"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1">
       <c r="B15" s="5"/>
@@ -7870,13 +7903,13 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="45" t="s">
         <v>11</v>
       </c>
@@ -7889,523 +7922,523 @@
       <c r="J17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="130" t="s">
+      <c r="K17" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="131"/>
+      <c r="L17" s="143"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="199">
+      <c r="B18" s="196">
         <f>請求書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="136">
+      <c r="C18" s="197"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="148">
         <f>請求書!G18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="202">
+      <c r="H18" s="199">
         <f>請求書!H18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="203">
+      <c r="I18" s="200">
         <f>請求書!I18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="203">
+      <c r="J18" s="200">
         <f>請求書!J18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="190">
+      <c r="K18" s="194">
         <f>請求書!K18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="191"/>
+      <c r="L18" s="195"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="192">
+      <c r="B19" s="190">
         <f>請求書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="122"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="120"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="195">
+      <c r="B20" s="186">
         <f>請求書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="146">
+      <c r="C20" s="187"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="129">
         <f>請求書!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="130">
         <f>請求書!H20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="198">
+      <c r="I20" s="189">
         <f>請求書!I20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="198">
+      <c r="J20" s="189">
         <f>請求書!J20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="119">
         <f>請求書!K20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="122"/>
+      <c r="L20" s="120"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="192">
+      <c r="B21" s="190">
         <f>請求書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="122"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="120"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="195">
+      <c r="B22" s="186">
         <f>請求書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="146">
+      <c r="C22" s="187"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="129">
         <f>請求書!G22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="138">
+      <c r="H22" s="130">
         <f>請求書!H22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="198">
+      <c r="I22" s="189">
         <f>請求書!I22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="198">
+      <c r="J22" s="189">
         <f>請求書!J22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="119">
         <f>請求書!K22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="122"/>
+      <c r="L22" s="120"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="192">
+      <c r="B23" s="190">
         <f>請求書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="122"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="120"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="195">
+      <c r="B24" s="186">
         <f>請求書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="146">
+      <c r="C24" s="187"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="129">
         <f>請求書!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="138">
+      <c r="H24" s="130">
         <f>請求書!H24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="198">
+      <c r="I24" s="189">
         <f>請求書!I24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="198">
+      <c r="J24" s="189">
         <f>請求書!J24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="119">
         <f>請求書!K24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="122"/>
+      <c r="L24" s="120"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
-      <c r="B25" s="192">
+      <c r="B25" s="190">
         <f>請求書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="122"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="120"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1">
-      <c r="B26" s="195">
+      <c r="B26" s="186">
         <f>請求書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="146">
+      <c r="C26" s="187"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="129">
         <f>請求書!G26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="138">
+      <c r="H26" s="130">
         <f>請求書!H26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="198">
+      <c r="I26" s="189">
         <f>請求書!I26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="198">
+      <c r="J26" s="189">
         <f>請求書!J26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="121">
+      <c r="K26" s="119">
         <f>請求書!K26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="122"/>
+      <c r="L26" s="120"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
-      <c r="B27" s="192">
+      <c r="B27" s="190">
         <f>請求書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="122"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="120"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="195">
+      <c r="B28" s="186">
         <f>請求書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="146">
+      <c r="C28" s="187"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="129">
         <f>請求書!G28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="130">
         <f>請求書!H28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="198">
+      <c r="I28" s="189">
         <f>請求書!I28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="198">
+      <c r="J28" s="189">
         <f>請求書!J28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="121">
+      <c r="K28" s="119">
         <f>請求書!K28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="122"/>
+      <c r="L28" s="120"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1">
-      <c r="B29" s="192">
+      <c r="B29" s="190">
         <f>請求書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="198"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="122"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="120"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
-      <c r="B30" s="195">
+      <c r="B30" s="186">
         <f>請求書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="146">
+      <c r="C30" s="187"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="129">
         <f>請求書!G30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="130">
         <f>請求書!H30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="198">
+      <c r="I30" s="189">
         <f>請求書!I30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="198">
+      <c r="J30" s="189">
         <f>請求書!J30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="121">
+      <c r="K30" s="119">
         <f>請求書!K30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="122"/>
+      <c r="L30" s="120"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
-      <c r="B31" s="192">
+      <c r="B31" s="190">
         <f>請求書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="193"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="198"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="122"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="120"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1">
-      <c r="B32" s="195">
+      <c r="B32" s="186">
         <f>請求書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="146">
+      <c r="C32" s="187"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="129">
         <f>請求書!G32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="138">
+      <c r="H32" s="130">
         <f>請求書!H32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="198">
+      <c r="I32" s="189">
         <f>請求書!I32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="198">
+      <c r="J32" s="189">
         <f>請求書!J32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="121">
+      <c r="K32" s="119">
         <f>請求書!K32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="122"/>
+      <c r="L32" s="120"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
-      <c r="B33" s="192">
+      <c r="B33" s="190">
         <f>請求書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="193"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="122"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="120"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="195">
+      <c r="B34" s="186">
         <f>請求書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="146">
+      <c r="C34" s="187"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="129">
         <f>請求書!G34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="138">
+      <c r="H34" s="130">
         <f>請求書!H34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="198">
+      <c r="I34" s="189">
         <f>請求書!I34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="198">
+      <c r="J34" s="189">
         <f>請求書!J34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="121">
+      <c r="K34" s="119">
         <f>請求書!K34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="122"/>
+      <c r="L34" s="120"/>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
-      <c r="B35" s="192">
+      <c r="B35" s="190">
         <f>請求書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="193"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="122"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="120"/>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
-      <c r="B36" s="195">
+      <c r="B36" s="186">
         <f>請求書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="146">
+      <c r="C36" s="187"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="129">
         <f>請求書!G36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="138">
+      <c r="H36" s="130">
         <f>請求書!H36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="198">
+      <c r="I36" s="189">
         <f>請求書!I36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="198">
+      <c r="J36" s="189">
         <f>請求書!J36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="121">
+      <c r="K36" s="119">
         <f>請求書!K36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="122"/>
+      <c r="L36" s="120"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="204">
+      <c r="B37" s="183">
         <f>請求書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="205"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="148"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="193"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="155" t="s">
+      <c r="E38" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="156"/>
-      <c r="G38" s="159" t="s">
+      <c r="F38" s="109"/>
+      <c r="G38" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160" t="s">
+      <c r="H38" s="113"/>
+      <c r="I38" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="160"/>
-      <c r="K38" s="160" t="s">
+      <c r="J38" s="113"/>
+      <c r="K38" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="161"/>
+      <c r="L38" s="114"/>
     </row>
     <row r="39" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="162">
+      <c r="E39" s="110"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="115">
         <f>SUM(J18:J37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="163"/>
-      <c r="I39" s="164">
+      <c r="H39" s="116"/>
+      <c r="I39" s="117">
         <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="162"/>
-      <c r="K39" s="163">
+      <c r="J39" s="115"/>
+      <c r="K39" s="116">
         <f>G39+I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="165"/>
+      <c r="L39" s="118"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="4"/>
@@ -8505,13 +8538,73 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B34:F34"/>
@@ -8526,73 +8619,13 @@
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/main/static/tpl/JpInvoice.xlsx
+++ b/main/static/tpl/JpInvoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.110\請求書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{19B6D188-11AF-4023-B193-8E3D7A351BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C731001-57B2-4B10-8E68-12EE93014012}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{19B6D188-11AF-4023-B193-8E3D7A351BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108E86F6-7D6A-411A-9FAE-B04EB0CE4DD5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="17" r:id="rId1"/>
@@ -30,6 +30,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
   <si>
     <t>御見積書</t>
     <rPh sb="0" eb="4">
@@ -367,20 +370,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>振込先：</t>
-    <rPh sb="0" eb="2">
-      <t>フリコミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※振り込み手数料はお客様にてご負担でお願いします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>受領書</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1714,6 +1703,206 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1754,205 +1943,148 @@
     <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1987,147 +2119,24 @@
     <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2139,6 +2148,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2148,43 +2175,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2195,79 +2255,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2855,7 +2844,7 @@
   </sheetPr>
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2866,15 +2855,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="H1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="105"/>
+      <c r="H1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="48"/>
       <c r="J1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="C2" s="13" t="s">
@@ -2882,13 +2871,13 @@
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="13"/>
@@ -2904,12 +2893,12 @@
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -2918,10 +2907,10 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="22.5" customHeight="1">
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="39"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -3001,10 +2990,10 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="104"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -3018,8 +3007,8 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
@@ -3035,22 +3024,22 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56">
         <f>K39</f>
         <v>0</v>
       </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1">
       <c r="B15" s="15" t="s">
@@ -3081,13 +3070,13 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="43" t="s">
         <v>11</v>
       </c>
@@ -3100,340 +3089,340 @@
       <c r="J17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="102" t="s">
+      <c r="K17" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="103"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="72">
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="78">
         <f>G18*I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72">
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78">
         <f>G20*I20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="75"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72">
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78">
         <f t="shared" ref="J22" si="0">G22*I22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="75"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72">
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78">
         <f t="shared" ref="J24" si="1">G24*I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="75"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1">
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72">
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78">
         <f t="shared" ref="J26" si="2">G26*I26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
-      <c r="B27" s="76"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72">
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78">
         <f t="shared" ref="J28" si="3">G28*I28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1">
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="75"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72">
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78">
         <f t="shared" ref="J32" si="4">G32*I32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="75"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72">
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78">
         <f t="shared" ref="J34" si="5">G34*I34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="81"/>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72">
+      <c r="B36" s="71"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78">
         <f t="shared" ref="J36" si="6">G36*I36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="58"/>
-      <c r="L36" s="59"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="81"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="61"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="90"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="51" t="s">
+      <c r="F38" s="98"/>
+      <c r="G38" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52" t="s">
+      <c r="H38" s="102"/>
+      <c r="I38" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52" t="s">
+      <c r="J38" s="102"/>
+      <c r="K38" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="53"/>
+      <c r="L38" s="103"/>
     </row>
     <row r="39" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="54">
+      <c r="E39" s="99"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="104">
         <f>SUM(J18:J37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56">
+      <c r="H39" s="105"/>
+      <c r="I39" s="106">
         <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55">
+      <c r="J39" s="104"/>
+      <c r="K39" s="105">
         <f>G39+I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="57"/>
+      <c r="L39" s="107"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="13"/>
@@ -3547,17 +3536,69 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="K18:L19"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
@@ -3572,69 +3613,17 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3666,32 +3655,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" customHeight="1">
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="154"/>
+      <c r="H1" s="109"/>
       <c r="I1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="91">
+      <c r="J1" s="49">
         <f>見積書!K1</f>
         <v>0</v>
       </c>
-      <c r="K1" s="91"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="106">
+      <c r="J2" s="50">
         <f>見積書!K2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="106"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1">
       <c r="B3" s="4"/>
@@ -3706,32 +3695,32 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B4" s="155">
+      <c r="B4" s="110">
         <f>見積書!L6</f>
         <v>0</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="G4" s="156" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="G4" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="2:11" ht="22.5" customHeight="1">
       <c r="B5" s="13"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="14"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="161"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1">
       <c r="B6" s="15">
@@ -3742,11 +3731,11 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="161"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="15">
@@ -3757,11 +3746,11 @@
       <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
       <c r="B8" s="15">
@@ -3772,11 +3761,11 @@
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="161"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="116"/>
     </row>
     <row r="9" spans="2:11" ht="13.5">
       <c r="B9" s="15">
@@ -3787,11 +3776,11 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="161"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
       <c r="B10" s="38" t="s">
@@ -3801,11 +3790,11 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="161"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="116"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1">
       <c r="B11" s="13"/>
@@ -3813,22 +3802,22 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="161"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="164"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="4"/>
@@ -3883,12 +3872,12 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45" t="s">
         <v>11</v>
       </c>
@@ -3901,501 +3890,501 @@
       <c r="I17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="142" t="s">
+      <c r="J17" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="143"/>
+      <c r="K17" s="131"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1">
-      <c r="B18" s="144">
+      <c r="B18" s="132">
         <f>見積書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147">
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135">
         <f>見積書!G18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="149">
+      <c r="G18" s="137">
         <f>見積書!H18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="150">
+      <c r="H18" s="139">
         <f>見積書!I18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="150">
+      <c r="I18" s="139">
         <f>見積書!J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="151">
+      <c r="J18" s="141">
         <f>見積書!K18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="152"/>
+      <c r="K18" s="142"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="B19" s="133">
+      <c r="B19" s="124">
         <f>見積書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="120"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="122"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="B20" s="126">
+      <c r="B20" s="143">
         <f>見積書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129">
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146">
         <f>見積書!G20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="130">
+      <c r="G20" s="138">
         <f>見積書!H20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="140">
         <f>見積書!I20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="140">
         <f>見積書!J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="119">
+      <c r="J20" s="121">
         <f>見積書!K20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="120"/>
+      <c r="K20" s="122"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
-      <c r="B21" s="133">
+      <c r="B21" s="124">
         <f>見積書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="120"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="122"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1">
-      <c r="B22" s="126">
+      <c r="B22" s="143">
         <f>見積書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129">
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146">
         <f>見積書!G22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="130">
+      <c r="G22" s="138">
         <f>見積書!H22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="131">
+      <c r="H22" s="140">
         <f>見積書!I22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="140">
         <f>見積書!J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="119">
+      <c r="J22" s="121">
         <f>見積書!K22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="120"/>
+      <c r="K22" s="122"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1">
-      <c r="B23" s="133">
+      <c r="B23" s="124">
         <f>見積書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="120"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="122"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1">
-      <c r="B24" s="126">
+      <c r="B24" s="143">
         <f>見積書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129">
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146">
         <f>見積書!G24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="130">
+      <c r="G24" s="138">
         <f>見積書!H24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="131">
+      <c r="H24" s="140">
         <f>見積書!I24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I24" s="140">
         <f>見積書!J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="119">
+      <c r="J24" s="121">
         <f>見積書!K24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="120"/>
+      <c r="K24" s="122"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1">
-      <c r="B25" s="133">
+      <c r="B25" s="124">
         <f>見積書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="120"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="122"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1">
-      <c r="B26" s="126">
+      <c r="B26" s="143">
         <f>見積書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129">
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146">
         <f>見積書!G26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="130">
+      <c r="G26" s="138">
         <f>見積書!H26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="131">
+      <c r="H26" s="140">
         <f>見積書!I26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="140">
         <f>見積書!J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="119">
+      <c r="J26" s="121">
         <f>見積書!K26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="120"/>
+      <c r="K26" s="122"/>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1">
-      <c r="B27" s="133">
+      <c r="B27" s="124">
         <f>見積書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="120"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="122"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1">
-      <c r="B28" s="126">
+      <c r="B28" s="143">
         <f>見積書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129">
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146">
         <f>見積書!G28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="130">
+      <c r="G28" s="138">
         <f>見積書!H28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="131">
+      <c r="H28" s="140">
         <f>見積書!I28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="131">
+      <c r="I28" s="140">
         <f>見積書!J28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="119">
+      <c r="J28" s="121">
         <f>見積書!K28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="120"/>
+      <c r="K28" s="122"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1">
-      <c r="B29" s="133">
+      <c r="B29" s="124">
         <f>見積書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="120"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="122"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1">
-      <c r="B30" s="126">
+      <c r="B30" s="143">
         <f>見積書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129">
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146">
         <f>見積書!G30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="130">
+      <c r="G30" s="138">
         <f>見積書!H30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="131">
+      <c r="H30" s="140">
         <f>見積書!I30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="140">
         <f>見積書!J30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="119">
+      <c r="J30" s="121">
         <f>見積書!K30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="120"/>
+      <c r="K30" s="122"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1">
-      <c r="B31" s="133">
+      <c r="B31" s="124">
         <f>見積書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="120"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="122"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1">
-      <c r="B32" s="126">
+      <c r="B32" s="143">
         <f>見積書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129">
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146">
         <f>見積書!G32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="130">
+      <c r="G32" s="138">
         <f>見積書!H32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="140">
         <f>見積書!I32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="140">
         <f>見積書!J32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="119">
+      <c r="J32" s="121">
         <f>見積書!K32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="120"/>
+      <c r="K32" s="122"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1">
-      <c r="B33" s="133">
+      <c r="B33" s="124">
         <f>見積書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="120"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="122"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1">
-      <c r="B34" s="126">
+      <c r="B34" s="143">
         <f>見積書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129">
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="146">
         <f>見積書!G34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="130">
+      <c r="G34" s="138">
         <f>見積書!H34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="131">
+      <c r="H34" s="140">
         <f>見積書!I34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="131">
+      <c r="I34" s="140">
         <f>見積書!J34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="119">
+      <c r="J34" s="121">
         <f>見積書!K34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="120"/>
+      <c r="K34" s="122"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1">
-      <c r="B35" s="133">
+      <c r="B35" s="124">
         <f>見積書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="120"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="122"/>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1">
-      <c r="B36" s="126">
+      <c r="B36" s="143">
         <f>見積書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="129">
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146">
         <f>見積書!G36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="130">
+      <c r="G36" s="138">
         <f>見積書!H36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="131">
+      <c r="H36" s="140">
         <f>見積書!I36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="140">
         <f>見積書!J36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="119">
+      <c r="J36" s="121">
         <f>見積書!K36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="120"/>
+      <c r="K36" s="122"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="123">
+      <c r="B37" s="149">
         <f>見積書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="122"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="148"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="108" t="s">
+      <c r="D38" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="109"/>
-      <c r="F38" s="112" t="s">
+      <c r="E38" s="156"/>
+      <c r="F38" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113" t="s">
+      <c r="G38" s="160"/>
+      <c r="H38" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113" t="s">
+      <c r="I38" s="160"/>
+      <c r="J38" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="114"/>
+      <c r="K38" s="161"/>
     </row>
     <row r="39" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="115">
+      <c r="D39" s="157"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="162">
         <f>SUM(I18:I37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="116"/>
-      <c r="H39" s="117">
+      <c r="G39" s="163"/>
+      <c r="H39" s="164">
         <f>ROUNDDOWN(F39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="115"/>
-      <c r="J39" s="116">
+      <c r="I39" s="162"/>
+      <c r="J39" s="163">
         <f>F39+H39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="118"/>
+      <c r="K39" s="165"/>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1">
       <c r="B40" s="4"/>
@@ -4478,12 +4467,69 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:K12"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:K35"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
     <mergeCell ref="J20:K21"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B17:E17"/>
@@ -4500,69 +4546,12 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J28:K29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:K12"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4601,18 +4590,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="105"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="91">
+      <c r="K1" s="49">
         <f>注文書!J1</f>
         <v>0</v>
       </c>
-      <c r="L1" s="91"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="C2" s="13" t="str">
@@ -4621,16 +4610,16 @@
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="106">
+      <c r="K2" s="50">
         <f>見積書!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="106"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="13"/>
@@ -4649,13 +4638,13 @@
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C4" s="107" t="str">
+      <c r="C4" s="51" t="str">
         <f>見積書!C4</f>
         <v>　御中</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -4664,12 +4653,12 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="22.5" customHeight="1">
-      <c r="C5" s="107">
+      <c r="C5" s="51">
         <f>見積書!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="44"/>
       <c r="G5" s="39"/>
       <c r="H5" s="14"/>
@@ -4768,10 +4757,10 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="104"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -4785,8 +4774,8 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
@@ -4802,22 +4791,22 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56">
         <f>K39</f>
         <v>0</v>
       </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1">
       <c r="B15" s="15"/>
@@ -4846,13 +4835,13 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1">
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="182"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
       <c r="G17" s="46" t="s">
         <v>11</v>
       </c>
@@ -4865,523 +4854,523 @@
       <c r="J17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="178" t="s">
+      <c r="K17" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="179"/>
+      <c r="L17" s="167"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="166">
+      <c r="B18" s="171">
         <f>見積書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="175">
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="177">
         <f>見積書!G18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="130">
+      <c r="H18" s="138">
         <f>見積書!H18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="131">
+      <c r="I18" s="140">
         <f>見積書!I18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="131">
+      <c r="J18" s="140">
         <f>見積書!J18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="121">
         <f>見積書!K18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="120"/>
+      <c r="L18" s="122"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="172">
+      <c r="B19" s="174">
         <f>見積書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="120"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="166">
+      <c r="B20" s="171">
         <f>見積書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="129">
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="146">
         <f>見積書!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="130">
+      <c r="H20" s="138">
         <f>見積書!H20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="140">
         <f>見積書!I20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="131">
+      <c r="J20" s="140">
         <f>見積書!J20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="119">
+      <c r="K20" s="121">
         <f>見積書!K20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="120"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="172">
+      <c r="B21" s="174">
         <f>見積書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="120"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="122"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="166">
+      <c r="B22" s="171">
         <f>見積書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="129">
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="146">
         <f>見積書!G22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="130">
+      <c r="H22" s="138">
         <f>見積書!H22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="140">
         <f>見積書!I22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="131">
+      <c r="J22" s="140">
         <f>見積書!J22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="119">
+      <c r="K22" s="121">
         <f>見積書!K22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="120"/>
+      <c r="L22" s="122"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="172">
+      <c r="B23" s="174">
         <f>見積書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="120"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="122"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="166">
+      <c r="B24" s="171">
         <f>見積書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="129">
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="146">
         <f>見積書!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="130">
+      <c r="H24" s="138">
         <f>見積書!H24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I24" s="140">
         <f>見積書!I24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="131">
+      <c r="J24" s="140">
         <f>見積書!J24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="119">
+      <c r="K24" s="121">
         <f>見積書!K24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="120"/>
+      <c r="L24" s="122"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
-      <c r="B25" s="172">
+      <c r="B25" s="174">
         <f>見積書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="120"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="122"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1">
-      <c r="B26" s="166">
+      <c r="B26" s="171">
         <f>見積書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="129">
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="146">
         <f>見積書!G26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="130">
+      <c r="H26" s="138">
         <f>見積書!H26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="140">
         <f>見積書!I26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="131">
+      <c r="J26" s="140">
         <f>見積書!J26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="119">
+      <c r="K26" s="121">
         <f>見積書!K26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="120"/>
+      <c r="L26" s="122"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
-      <c r="B27" s="172">
+      <c r="B27" s="174">
         <f>見積書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="120"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="122"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="166">
+      <c r="B28" s="171">
         <f>見積書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="129">
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="146">
         <f>見積書!G28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="130">
+      <c r="H28" s="138">
         <f>見積書!H28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="131">
+      <c r="I28" s="140">
         <f>見積書!I28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="131">
+      <c r="J28" s="140">
         <f>見積書!J28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="119">
+      <c r="K28" s="121">
         <f>見積書!K28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="120"/>
+      <c r="L28" s="122"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1">
-      <c r="B29" s="172">
+      <c r="B29" s="174">
         <f>見積書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="120"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="122"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
-      <c r="B30" s="166">
+      <c r="B30" s="171">
         <f>見積書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="129">
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="146">
         <f>見積書!G30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="130">
+      <c r="H30" s="138">
         <f>見積書!H30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="140">
         <f>見積書!I30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="131">
+      <c r="J30" s="140">
         <f>見積書!J30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="119">
+      <c r="K30" s="121">
         <f>見積書!K30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="120"/>
+      <c r="L30" s="122"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
-      <c r="B31" s="172">
+      <c r="B31" s="174">
         <f>見積書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="120"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="122"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1">
-      <c r="B32" s="166">
+      <c r="B32" s="171">
         <f>見積書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="129">
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="146">
         <f>見積書!G32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="130">
+      <c r="H32" s="138">
         <f>見積書!H32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="140">
         <f>見積書!I32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="140">
         <f>見積書!J32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="119">
+      <c r="K32" s="121">
         <f>見積書!K32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="120"/>
+      <c r="L32" s="122"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
-      <c r="B33" s="172">
+      <c r="B33" s="174">
         <f>見積書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="120"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="122"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="166">
+      <c r="B34" s="171">
         <f>見積書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="129">
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="146">
         <f>見積書!G34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="130">
+      <c r="H34" s="138">
         <f>見積書!H34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="131">
+      <c r="I34" s="140">
         <f>見積書!I34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="131">
+      <c r="J34" s="140">
         <f>見積書!J34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="119">
+      <c r="K34" s="121">
         <f>見積書!K34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="120"/>
+      <c r="L34" s="122"/>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
-      <c r="B35" s="172">
+      <c r="B35" s="174">
         <f>見積書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="120"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="122"/>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
-      <c r="B36" s="166">
+      <c r="B36" s="171">
         <f>見積書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="129">
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="146">
         <f>見積書!G36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="130">
+      <c r="H36" s="138">
         <f>見積書!H36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="140">
         <f>見積書!I36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="131">
+      <c r="J36" s="140">
         <f>見積書!J36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="119">
+      <c r="K36" s="121">
         <f>見積書!K36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="120"/>
+      <c r="L36" s="122"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="169">
+      <c r="B37" s="180">
         <f>見積書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="122"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="148"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="97" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="41"/>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52" t="s">
+      <c r="H38" s="102"/>
+      <c r="I38" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52" t="s">
+      <c r="J38" s="102"/>
+      <c r="K38" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="53"/>
+      <c r="L38" s="103"/>
     </row>
     <row r="39" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="49"/>
+      <c r="E39" s="99"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="54">
+      <c r="G39" s="104">
         <f>SUM(J18:J37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56">
+      <c r="H39" s="105"/>
+      <c r="I39" s="106">
         <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55">
+      <c r="J39" s="104"/>
+      <c r="K39" s="105">
         <f>G39+I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="57"/>
+      <c r="L39" s="107"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="13"/>
@@ -5495,70 +5484,14 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="I36:I37"/>
@@ -5575,14 +5508,70 @@
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="H34:H35"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5607,7 +5596,9 @@
   </sheetPr>
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5618,18 +5609,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="105"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="91">
+      <c r="K1" s="49">
         <f>見積書!K1</f>
         <v>0</v>
       </c>
-      <c r="L1" s="91"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="C2" s="13" t="str">
@@ -5638,16 +5629,16 @@
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="106">
+      <c r="K2" s="50">
         <f>見積書!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="106"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="13"/>
@@ -5666,13 +5657,13 @@
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C4" s="107" t="str">
+      <c r="C4" s="51" t="str">
         <f>見積書!C4</f>
         <v>　御中</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -5681,12 +5672,12 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="22.5" customHeight="1">
-      <c r="C5" s="107">
+      <c r="C5" s="51">
         <f>見積書!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="44"/>
       <c r="G5" s="39"/>
       <c r="H5" s="14"/>
@@ -5785,10 +5776,10 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="104"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1">
       <c r="B12" s="13" t="s">
@@ -5802,8 +5793,8 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
@@ -5819,22 +5810,22 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56">
         <f>K39</f>
         <v>0</v>
       </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1">
       <c r="B15" s="15"/>
@@ -5863,13 +5854,13 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="43" t="s">
         <v>11</v>
       </c>
@@ -5882,523 +5873,523 @@
       <c r="J17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="102" t="s">
+      <c r="K17" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="103"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="166">
+      <c r="B18" s="171">
         <f>見積書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="175">
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="177">
         <f>見積書!G18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="130">
+      <c r="H18" s="138">
         <f>見積書!H18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="131">
+      <c r="I18" s="140">
         <f>見積書!I18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="131">
+      <c r="J18" s="140">
         <f>見積書!J18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="121">
         <f>見積書!K18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="120"/>
+      <c r="L18" s="122"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="172">
+      <c r="B19" s="174">
         <f>見積書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="120"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="166">
+      <c r="B20" s="171">
         <f>見積書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="129">
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="146">
         <f>見積書!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="130">
+      <c r="H20" s="138">
         <f>見積書!H20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="140">
         <f>見積書!I20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="131">
+      <c r="J20" s="140">
         <f>見積書!J20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="119">
+      <c r="K20" s="121">
         <f>見積書!K20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="120"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="172">
+      <c r="B21" s="174">
         <f>見積書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="120"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="122"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="166">
+      <c r="B22" s="171">
         <f>見積書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="129">
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="146">
         <f>見積書!G22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="130">
+      <c r="H22" s="138">
         <f>見積書!H22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="140">
         <f>見積書!I22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="131">
+      <c r="J22" s="140">
         <f>見積書!J22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="119">
+      <c r="K22" s="121">
         <f>見積書!K22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="120"/>
+      <c r="L22" s="122"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="172">
+      <c r="B23" s="174">
         <f>見積書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="120"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="122"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="166">
+      <c r="B24" s="171">
         <f>見積書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="129">
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="146">
         <f>見積書!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="130">
+      <c r="H24" s="138">
         <f>見積書!H24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I24" s="140">
         <f>見積書!I24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="131">
+      <c r="J24" s="140">
         <f>見積書!J24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="119">
+      <c r="K24" s="121">
         <f>見積書!K24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="120"/>
+      <c r="L24" s="122"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
-      <c r="B25" s="172">
+      <c r="B25" s="174">
         <f>見積書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="120"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="122"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1">
-      <c r="B26" s="166">
+      <c r="B26" s="171">
         <f>見積書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="129">
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="146">
         <f>見積書!G26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="130">
+      <c r="H26" s="138">
         <f>見積書!H26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="140">
         <f>見積書!I26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="131">
+      <c r="J26" s="140">
         <f>見積書!J26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="119">
+      <c r="K26" s="121">
         <f>見積書!K26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="120"/>
+      <c r="L26" s="122"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
-      <c r="B27" s="172">
+      <c r="B27" s="174">
         <f>見積書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="120"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="122"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="166">
+      <c r="B28" s="171">
         <f>見積書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="129">
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="146">
         <f>見積書!G28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="130">
+      <c r="H28" s="138">
         <f>見積書!H28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="131">
+      <c r="I28" s="140">
         <f>見積書!I28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="131">
+      <c r="J28" s="140">
         <f>見積書!J28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="119">
+      <c r="K28" s="121">
         <f>見積書!K28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="120"/>
+      <c r="L28" s="122"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1">
-      <c r="B29" s="172">
+      <c r="B29" s="174">
         <f>見積書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="120"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="122"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
-      <c r="B30" s="166">
+      <c r="B30" s="171">
         <f>見積書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="129">
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="146">
         <f>見積書!G30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="130">
+      <c r="H30" s="138">
         <f>見積書!H30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="140">
         <f>見積書!I30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="131">
+      <c r="J30" s="140">
         <f>見積書!J30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="119">
+      <c r="K30" s="121">
         <f>見積書!K30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="120"/>
+      <c r="L30" s="122"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
-      <c r="B31" s="172">
+      <c r="B31" s="174">
         <f>見積書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="120"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="122"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1">
-      <c r="B32" s="166">
+      <c r="B32" s="171">
         <f>見積書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="129">
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="146">
         <f>見積書!G32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="130">
+      <c r="H32" s="138">
         <f>見積書!H32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="140">
         <f>見積書!I32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="140">
         <f>見積書!J32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="119">
+      <c r="K32" s="121">
         <f>見積書!K32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="120"/>
+      <c r="L32" s="122"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
-      <c r="B33" s="172">
+      <c r="B33" s="174">
         <f>見積書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="120"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="122"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="166">
+      <c r="B34" s="171">
         <f>見積書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="129">
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="146">
         <f>見積書!G34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="130">
+      <c r="H34" s="138">
         <f>見積書!H34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="131">
+      <c r="I34" s="140">
         <f>見積書!I34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="131">
+      <c r="J34" s="140">
         <f>見積書!J34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="119">
+      <c r="K34" s="121">
         <f>見積書!K34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="120"/>
+      <c r="L34" s="122"/>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
-      <c r="B35" s="172">
+      <c r="B35" s="174">
         <f>見積書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="120"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="122"/>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
-      <c r="B36" s="166">
+      <c r="B36" s="171">
         <f>見積書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="129">
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="146">
         <f>見積書!G36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="130">
+      <c r="H36" s="138">
         <f>見積書!H36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="140">
         <f>見積書!I36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="131">
+      <c r="J36" s="140">
         <f>見積書!J36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="119">
+      <c r="K36" s="121">
         <f>見積書!K36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="120"/>
+      <c r="L36" s="122"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="169">
+      <c r="B37" s="180">
         <f>見積書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="122"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="148"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="51" t="s">
+      <c r="F38" s="98"/>
+      <c r="G38" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52" t="s">
+      <c r="H38" s="102"/>
+      <c r="I38" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52" t="s">
+      <c r="J38" s="102"/>
+      <c r="K38" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="53"/>
+      <c r="L38" s="103"/>
     </row>
     <row r="39" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="54">
+      <c r="E39" s="99"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="104">
         <f>SUM(J18:J37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56">
+      <c r="H39" s="105"/>
+      <c r="I39" s="106">
         <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55">
+      <c r="J39" s="104"/>
+      <c r="K39" s="105">
         <f>G39+I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="57"/>
+      <c r="L39" s="107"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="13"/>
@@ -6446,14 +6437,9 @@
         <v>15</v>
       </c>
       <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="20" t="str">
-        <f>IF(L46=1,"静岡銀行　藤沢支店　　",IF(L46=2,"三菱UFJ銀行　藤沢支店　　","りそな銀行　藤沢支店　　"))</f>
-        <v>静岡銀行　藤沢支店　　</v>
-      </c>
+      <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="19"/>
       <c r="I43" s="20"/>
@@ -6463,10 +6449,6 @@
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1">
       <c r="B44" s="22"/>
-      <c r="F44" s="17" t="str">
-        <f>IF(L46=1,"普通　0152436",IF(L46=2,"当座　9009191","普通　1433625"))</f>
-        <v>普通　0152436</v>
-      </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="J44" s="13"/>
@@ -6475,10 +6457,6 @@
     </row>
     <row r="45" spans="2:12" ht="15" customHeight="1">
       <c r="B45" s="22"/>
-      <c r="F45" s="17" t="str">
-        <f>IF(L46=1,"名義　フジサワボウエキ（カ",IF(L46=2,"名義　フジサワボウエキ（カ","名義　フジサワボウエキ（カ"))</f>
-        <v>名義　フジサワボウエキ（カ</v>
-      </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="J45" s="13"/>
@@ -6490,9 +6468,7 @@
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="26" t="s">
-        <v>38</v>
-      </c>
+      <c r="F46" s="26"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
@@ -6529,6 +6505,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
     <mergeCell ref="K32:L33"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="I20:I21"/>
@@ -6545,78 +6593,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -6628,9 +6604,6 @@
   <pageMargins left="0.59055118110236215" right="0.59055118110236215" top="0.78740157480314965" bottom="0.78740157480314965" header="0.55118110236220474" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="F44:F45" unlockedFormula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6725,32 +6698,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" customHeight="1">
-      <c r="G1" s="153" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="154"/>
+      <c r="G1" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="109"/>
       <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="208">
+      <c r="J1" s="183">
         <f>請求書!K2</f>
         <v>0</v>
       </c>
-      <c r="K1" s="209"/>
+      <c r="K1" s="184"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="106">
+        <v>38</v>
+      </c>
+      <c r="J2" s="50">
         <f>見積書!K2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="106"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1">
       <c r="B3" s="4"/>
@@ -6765,32 +6738,32 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B4" s="155">
+      <c r="B4" s="110">
         <f>見積書!L6</f>
         <v>0</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="G4" s="156" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="G4" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="2:11" ht="22.5" customHeight="1">
       <c r="B5" s="13"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="14"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="161"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1">
       <c r="B6" s="15">
@@ -6801,11 +6774,11 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="161"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="15">
@@ -6816,11 +6789,11 @@
       <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
       <c r="B8" s="15">
@@ -6831,11 +6804,11 @@
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="161"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="116"/>
     </row>
     <row r="9" spans="2:11" ht="18.95">
       <c r="B9" s="15">
@@ -6846,11 +6819,11 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="161"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
       <c r="B10" s="38" t="s">
@@ -6860,11 +6833,11 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="161"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="116"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1">
       <c r="B11" s="13"/>
@@ -6872,22 +6845,22 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="161"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="164"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="4"/>
@@ -6903,7 +6876,7 @@
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1">
       <c r="B14" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -6940,12 +6913,12 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="45" t="s">
         <v>11</v>
       </c>
@@ -6958,501 +6931,501 @@
       <c r="I17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="142" t="s">
+      <c r="J17" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="143"/>
+      <c r="K17" s="131"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1">
-      <c r="B18" s="144">
+      <c r="B18" s="132">
         <f>請求書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147">
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135">
         <f>請求書!G18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="149">
+      <c r="G18" s="137">
         <f>請求書!H18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="150">
+      <c r="H18" s="139">
         <f>請求書!I18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="150">
+      <c r="I18" s="139">
         <f>請求書!J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="151">
+      <c r="J18" s="141">
         <f>請求書!K18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="152"/>
+      <c r="K18" s="142"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="B19" s="133">
+      <c r="B19" s="124">
         <f>請求書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="120"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="122"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
-      <c r="B20" s="126">
+      <c r="B20" s="143">
         <f>請求書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129">
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146">
         <f>請求書!G20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="130">
+      <c r="G20" s="138">
         <f>請求書!H20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="140">
         <f>請求書!I20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="140">
         <f>請求書!J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="119">
+      <c r="J20" s="121">
         <f>請求書!K20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="120"/>
+      <c r="K20" s="122"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
-      <c r="B21" s="133">
+      <c r="B21" s="124">
         <f>請求書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="120"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="122"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1">
-      <c r="B22" s="126">
+      <c r="B22" s="143">
         <f>請求書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129">
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146">
         <f>請求書!G22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="130">
+      <c r="G22" s="138">
         <f>請求書!H22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="131">
+      <c r="H22" s="140">
         <f>請求書!I22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="140">
         <f>請求書!J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="119">
+      <c r="J22" s="121">
         <f>請求書!K22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="120"/>
+      <c r="K22" s="122"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1">
-      <c r="B23" s="133">
+      <c r="B23" s="124">
         <f>請求書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="120"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="122"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1">
-      <c r="B24" s="126">
+      <c r="B24" s="143">
         <f>請求書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129">
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146">
         <f>請求書!G24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="130">
+      <c r="G24" s="138">
         <f>請求書!H24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="131">
+      <c r="H24" s="140">
         <f>請求書!I24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I24" s="140">
         <f>請求書!J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="119">
+      <c r="J24" s="121">
         <f>請求書!K24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="120"/>
+      <c r="K24" s="122"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1">
-      <c r="B25" s="133">
+      <c r="B25" s="124">
         <f>請求書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="120"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="122"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1">
-      <c r="B26" s="126">
+      <c r="B26" s="143">
         <f>請求書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129">
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146">
         <f>請求書!G26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="130">
+      <c r="G26" s="138">
         <f>請求書!H26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="131">
+      <c r="H26" s="140">
         <f>請求書!I26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="140">
         <f>請求書!J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="119">
+      <c r="J26" s="121">
         <f>請求書!K26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="120"/>
+      <c r="K26" s="122"/>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1">
-      <c r="B27" s="133">
+      <c r="B27" s="124">
         <f>請求書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="120"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="122"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1">
-      <c r="B28" s="126">
+      <c r="B28" s="143">
         <f>請求書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129">
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146">
         <f>請求書!G28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="130">
+      <c r="G28" s="138">
         <f>請求書!H28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="131">
+      <c r="H28" s="140">
         <f>請求書!I28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="131">
+      <c r="I28" s="140">
         <f>請求書!J28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="119">
+      <c r="J28" s="121">
         <f>請求書!K28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="120"/>
+      <c r="K28" s="122"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1">
-      <c r="B29" s="133">
+      <c r="B29" s="124">
         <f>請求書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="120"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="122"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1">
-      <c r="B30" s="126">
+      <c r="B30" s="143">
         <f>請求書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129">
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146">
         <f>請求書!G30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="130">
+      <c r="G30" s="138">
         <f>請求書!H30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="131">
+      <c r="H30" s="140">
         <f>請求書!I30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="140">
         <f>請求書!J30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="119">
+      <c r="J30" s="121">
         <f>請求書!K30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="120"/>
+      <c r="K30" s="122"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1">
-      <c r="B31" s="133">
+      <c r="B31" s="124">
         <f>請求書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="120"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="122"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1">
-      <c r="B32" s="126">
+      <c r="B32" s="143">
         <f>請求書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129">
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146">
         <f>請求書!G32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="130">
+      <c r="G32" s="138">
         <f>請求書!H32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="140">
         <f>請求書!I32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="140">
         <f>請求書!J32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="119">
+      <c r="J32" s="121">
         <f>請求書!K32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="120"/>
+      <c r="K32" s="122"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1">
-      <c r="B33" s="133">
+      <c r="B33" s="124">
         <f>請求書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="120"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="122"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1">
-      <c r="B34" s="126">
+      <c r="B34" s="143">
         <f>請求書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129">
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="146">
         <f>請求書!G34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="130">
+      <c r="G34" s="138">
         <f>請求書!H34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="131">
+      <c r="H34" s="140">
         <f>請求書!I34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="131">
+      <c r="I34" s="140">
         <f>請求書!J34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="119">
+      <c r="J34" s="121">
         <f>請求書!K34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="120"/>
+      <c r="K34" s="122"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1">
-      <c r="B35" s="133">
+      <c r="B35" s="124">
         <f>請求書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="120"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="122"/>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1">
-      <c r="B36" s="126">
+      <c r="B36" s="143">
         <f>請求書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="129">
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146">
         <f>請求書!G36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="130">
+      <c r="G36" s="138">
         <f>請求書!H36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="131">
+      <c r="H36" s="140">
         <f>請求書!I36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="140">
         <f>請求書!J36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="119">
+      <c r="J36" s="121">
         <f>請求書!K36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="120"/>
+      <c r="K36" s="122"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="123">
+      <c r="B37" s="149">
         <f>請求書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="122"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="148"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="108" t="s">
+      <c r="D38" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="109"/>
-      <c r="F38" s="112" t="s">
+      <c r="E38" s="156"/>
+      <c r="F38" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113" t="s">
+      <c r="G38" s="160"/>
+      <c r="H38" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113" t="s">
+      <c r="I38" s="160"/>
+      <c r="J38" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="114"/>
+      <c r="K38" s="161"/>
     </row>
     <row r="39" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="115">
+      <c r="D39" s="157"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="162">
         <f>SUM(I18:I37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="116"/>
-      <c r="H39" s="117">
+      <c r="G39" s="163"/>
+      <c r="H39" s="164">
         <f>ROUNDDOWN(F39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="115"/>
-      <c r="J39" s="116">
+      <c r="I39" s="162"/>
+      <c r="J39" s="163">
         <f>F39+H39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="118"/>
+      <c r="K39" s="165"/>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1">
       <c r="B40" s="4"/>
@@ -7533,26 +7506,55 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:K12"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:K35"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="J20:K21"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="J24:K25"/>
@@ -7569,55 +7571,26 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J28:K29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:K12"/>
+    <mergeCell ref="G1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -7650,18 +7623,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="H1" s="153" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="154"/>
+      <c r="H1" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="109"/>
       <c r="J1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="91">
+        <v>41</v>
+      </c>
+      <c r="K1" s="49">
         <f>請求書!K1</f>
         <v>0</v>
       </c>
-      <c r="L1" s="91"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="C2" s="13" t="str">
@@ -7670,16 +7643,16 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="106">
+      <c r="K2" s="50">
         <f>請求書!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="106"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="4"/>
@@ -7698,13 +7671,13 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C4" s="107" t="str">
+      <c r="C4" s="51" t="str">
         <f>請求書!C4</f>
         <v>　御中</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -7713,13 +7686,13 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="22.5" customHeight="1">
-      <c r="C5" s="107">
+      <c r="C5" s="51">
         <f>請求書!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="39"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -7822,14 +7795,14 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="104"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -7839,11 +7812,11 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="91">
+      <c r="K12" s="49">
         <f>請求書!K12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="91"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="4"/>
@@ -7859,22 +7832,22 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B14" s="201" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="205">
+      <c r="B14" s="185" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189">
         <f>K39</f>
         <v>0</v>
       </c>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="206"/>
-      <c r="L14" s="207"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="191"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1">
       <c r="B15" s="5"/>
@@ -7903,13 +7876,13 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="141"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="45" t="s">
         <v>11</v>
       </c>
@@ -7922,523 +7895,523 @@
       <c r="J17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="142" t="s">
+      <c r="K17" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="143"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="196">
+      <c r="B18" s="201">
         <f>請求書!B18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="197"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="148">
+      <c r="C18" s="202"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="136">
         <f>請求書!G18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="199">
+      <c r="H18" s="204">
         <f>請求書!H18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="200">
+      <c r="I18" s="205">
         <f>請求書!I18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="200">
+      <c r="J18" s="205">
         <f>請求書!J18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="194">
+      <c r="K18" s="192">
         <f>請求書!K18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="195"/>
+      <c r="L18" s="193"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="190">
+      <c r="B19" s="194">
         <f>請求書!B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="120"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="186">
+      <c r="B20" s="197">
         <f>請求書!B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="187"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="129">
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="146">
         <f>請求書!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="130">
+      <c r="H20" s="138">
         <f>請求書!H20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="189">
+      <c r="I20" s="200">
         <f>請求書!I20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="189">
+      <c r="J20" s="200">
         <f>請求書!J20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="119">
+      <c r="K20" s="121">
         <f>請求書!K20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="120"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="190">
+      <c r="B21" s="194">
         <f>請求書!B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="120"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="122"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="186">
+      <c r="B22" s="197">
         <f>請求書!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="129">
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="146">
         <f>請求書!G22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="130">
+      <c r="H22" s="138">
         <f>請求書!H22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="189">
+      <c r="I22" s="200">
         <f>請求書!I22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="189">
+      <c r="J22" s="200">
         <f>請求書!J22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="119">
+      <c r="K22" s="121">
         <f>請求書!K22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="120"/>
+      <c r="L22" s="122"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
-      <c r="B23" s="190">
+      <c r="B23" s="194">
         <f>請求書!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="191"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="120"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="122"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="186">
+      <c r="B24" s="197">
         <f>請求書!B24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="187"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="129">
+      <c r="C24" s="198"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="146">
         <f>請求書!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="130">
+      <c r="H24" s="138">
         <f>請求書!H24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="189">
+      <c r="I24" s="200">
         <f>請求書!I24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="189">
+      <c r="J24" s="200">
         <f>請求書!J24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="119">
+      <c r="K24" s="121">
         <f>請求書!K24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="120"/>
+      <c r="L24" s="122"/>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
-      <c r="B25" s="190">
+      <c r="B25" s="194">
         <f>請求書!B25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="191"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="120"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="122"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1">
-      <c r="B26" s="186">
+      <c r="B26" s="197">
         <f>請求書!B26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="187"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="129">
+      <c r="C26" s="198"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="146">
         <f>請求書!G26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="130">
+      <c r="H26" s="138">
         <f>請求書!H26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="189">
+      <c r="I26" s="200">
         <f>請求書!I26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="189">
+      <c r="J26" s="200">
         <f>請求書!J26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="119">
+      <c r="K26" s="121">
         <f>請求書!K26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="120"/>
+      <c r="L26" s="122"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
-      <c r="B27" s="190">
+      <c r="B27" s="194">
         <f>請求書!B27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="191"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="120"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="122"/>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="186">
+      <c r="B28" s="197">
         <f>請求書!B28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="187"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="129">
+      <c r="C28" s="198"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="146">
         <f>請求書!G28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="130">
+      <c r="H28" s="138">
         <f>請求書!H28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="189">
+      <c r="I28" s="200">
         <f>請求書!I28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="189">
+      <c r="J28" s="200">
         <f>請求書!J28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="119">
+      <c r="K28" s="121">
         <f>請求書!K28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="120"/>
+      <c r="L28" s="122"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1">
-      <c r="B29" s="190">
+      <c r="B29" s="194">
         <f>請求書!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="191"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="189"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="120"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="122"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
-      <c r="B30" s="186">
+      <c r="B30" s="197">
         <f>請求書!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="187"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="129">
+      <c r="C30" s="198"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="146">
         <f>請求書!G30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="130">
+      <c r="H30" s="138">
         <f>請求書!H30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="189">
+      <c r="I30" s="200">
         <f>請求書!I30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="189">
+      <c r="J30" s="200">
         <f>請求書!J30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="119">
+      <c r="K30" s="121">
         <f>請求書!K30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="120"/>
+      <c r="L30" s="122"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
-      <c r="B31" s="190">
+      <c r="B31" s="194">
         <f>請求書!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="191"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="120"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="122"/>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1">
-      <c r="B32" s="186">
+      <c r="B32" s="197">
         <f>請求書!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="187"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="129">
+      <c r="C32" s="198"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="146">
         <f>請求書!G32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="130">
+      <c r="H32" s="138">
         <f>請求書!H32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="189">
+      <c r="I32" s="200">
         <f>請求書!I32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="189">
+      <c r="J32" s="200">
         <f>請求書!J32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="119">
+      <c r="K32" s="121">
         <f>請求書!K32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="120"/>
+      <c r="L32" s="122"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
-      <c r="B33" s="190">
+      <c r="B33" s="194">
         <f>請求書!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="191"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="189"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="120"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="122"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
-      <c r="B34" s="186">
+      <c r="B34" s="197">
         <f>請求書!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="187"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="129">
+      <c r="C34" s="198"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="146">
         <f>請求書!G34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="130">
+      <c r="H34" s="138">
         <f>請求書!H34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="189">
+      <c r="I34" s="200">
         <f>請求書!I34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="189">
+      <c r="J34" s="200">
         <f>請求書!J34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="119">
+      <c r="K34" s="121">
         <f>請求書!K34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="120"/>
+      <c r="L34" s="122"/>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
-      <c r="B35" s="190">
+      <c r="B35" s="194">
         <f>請求書!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="191"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="120"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="122"/>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
-      <c r="B36" s="186">
+      <c r="B36" s="197">
         <f>請求書!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="187"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="129">
+      <c r="C36" s="198"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="146">
         <f>請求書!G36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="130">
+      <c r="H36" s="138">
         <f>請求書!H36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="189">
+      <c r="I36" s="200">
         <f>請求書!I36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="189">
+      <c r="J36" s="200">
         <f>請求書!J36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="119">
+      <c r="K36" s="121">
         <f>請求書!K36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="120"/>
+      <c r="L36" s="122"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="183">
+      <c r="B37" s="206">
         <f>請求書!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="184"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="122"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="148"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="108" t="s">
+      <c r="E38" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="112" t="s">
+      <c r="F38" s="156"/>
+      <c r="G38" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113" t="s">
+      <c r="H38" s="160"/>
+      <c r="I38" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113" t="s">
+      <c r="J38" s="160"/>
+      <c r="K38" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="114"/>
+      <c r="L38" s="161"/>
     </row>
     <row r="39" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="115">
+      <c r="E39" s="157"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="162">
         <f>SUM(J18:J37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="116"/>
-      <c r="I39" s="117">
+      <c r="H39" s="163"/>
+      <c r="I39" s="164">
         <f>ROUNDDOWN(G39*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="115"/>
-      <c r="K39" s="116">
+      <c r="J39" s="162"/>
+      <c r="K39" s="163">
         <f>G39+I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="118"/>
+      <c r="L39" s="165"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="4"/>
@@ -8538,17 +8511,69 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="K18:L19"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
@@ -8563,69 +8588,17 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
